--- a/data/4server_result_(T200N10).xlsx
+++ b/data/4server_result_(T200N10).xlsx
@@ -432,37 +432,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="C2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="D2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="E2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="F2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="G2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="H2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="I2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="J2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="K2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895611</v>
       </c>
       <c r="L2">
-        <v>0.9999829155133751</v>
+        <v>0.9999807562895613</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -470,37 +470,37 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.9999733637785388</v>
+        <v>0.9999603790871144</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.9999552116691945</v>
       </c>
       <c r="D3">
-        <v>0.9999993658041604</v>
+        <v>0.9999518491581646</v>
       </c>
       <c r="E3">
-        <v>0.9999733637785388</v>
+        <v>0.9999601650135731</v>
       </c>
       <c r="F3">
-        <v>0.9999996829020802</v>
+        <v>0.9999599571823224</v>
       </c>
       <c r="G3">
-        <v>0.9999182752968037</v>
+        <v>0.9999598961507763</v>
       </c>
       <c r="H3">
-        <v>0.9999996829020802</v>
+        <v>0.9999526569177168</v>
       </c>
       <c r="I3">
-        <v>0.9999467275570776</v>
+        <v>0.9999620167995688</v>
       </c>
       <c r="J3">
-        <v>0.9999398140981736</v>
+        <v>0.9999540469268379</v>
       </c>
       <c r="K3">
-        <v>0.9999733637785388</v>
+        <v>0.9999605703476966</v>
       </c>
       <c r="L3">
-        <v>0.9999723639895992</v>
+        <v>0.9999576749252965</v>
       </c>
     </row>
   </sheetData>
